--- a/REGULAR/ACCOUNTING/BAYBAY, LOLITA.xlsx
+++ b/REGULAR/ACCOUNTING/BAYBAY, LOLITA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234567EB-58EC-4D46-B171-AAABAE48228C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EC9F68-D2FB-4EF5-B462-879B2DA07E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -31,20 +31,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
   <si>
     <t>PERIOD</t>
   </si>
@@ -356,6 +348,18 @@
   </si>
   <si>
     <t>2/11,14/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>9/20,21,22</t>
+  </si>
+  <si>
+    <t>9/23,26</t>
   </si>
 </sst>
 </file>
@@ -731,6 +735,12 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -766,12 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2760,7 +2764,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3136,12 +3140,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K145"/>
+  <dimension ref="A2:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A71" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A95" activePane="bottomLeft"/>
       <selection activeCell="N6" sqref="N6"/>
-      <selection pane="bottomLeft" activeCell="K94" sqref="K94"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3163,62 +3167,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3244,18 +3248,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3302,7 +3306,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.593999999999994</v>
+        <v>65.593999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3312,7 +3316,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>231.25</v>
+        <v>230.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3338,7 +3342,7 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="20"/>
@@ -3684,7 +3688,7 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="20"/>
@@ -4024,7 +4028,7 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="20"/>
@@ -4396,7 +4400,7 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="20"/>
@@ -4684,7 +4688,7 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B71" s="20"/>
@@ -4743,7 +4747,7 @@
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="61">
+      <c r="K73" s="49">
         <v>44229</v>
       </c>
     </row>
@@ -4765,7 +4769,7 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="61">
+      <c r="K74" s="49">
         <v>44242</v>
       </c>
     </row>
@@ -4911,7 +4915,7 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="61">
+      <c r="K81" s="49">
         <v>44497</v>
       </c>
     </row>
@@ -4933,7 +4937,7 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="61" t="s">
+      <c r="K82" s="49" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5002,7 +5006,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="60" t="s">
+      <c r="A86" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B86" s="20"/>
@@ -5173,7 +5177,7 @@
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="61">
+      <c r="K93" s="49">
         <v>44764</v>
       </c>
     </row>
@@ -5195,13 +5199,17 @@
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44805</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
@@ -5215,33 +5223,39 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D96" s="39"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="39">
+        <v>2</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B97" s="20"/>
+        <v>44835</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C97" s="13">
         <v>1.25</v>
       </c>
@@ -5252,14 +5266,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H97" s="39"/>
+      <c r="H97" s="39">
+        <v>1</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="49">
+        <v>44847</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13">
@@ -5279,7 +5297,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -5298,31 +5316,43 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="48" t="s">
+        <v>105</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
-      <c r="E100" s="9"/>
+      <c r="E100" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>65.593999999999994</v>
+      </c>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H100" s="39"/>
-      <c r="I100" s="9"/>
+      <c r="I100" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>230.25</v>
+      </c>
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>44927</v>
+      </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
@@ -6018,20 +6048,52 @@
       <c r="K144" s="20"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="41"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="43"/>
+      <c r="A145" s="40"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="42" t="str">
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H145" s="43"/>
+      <c r="H145" s="39"/>
       <c r="I145" s="9"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="15"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="40"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="41"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="43"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6097,17 +6159,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -6190,12 +6252,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/ACCOUNTING/BAYBAY, LOLITA.xlsx
+++ b/REGULAR/ACCOUNTING/BAYBAY, LOLITA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E755B97-4C8D-4570-BA82-9A2C542D6787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="432">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1329,12 +1328,15 @@
   </si>
   <si>
     <t>ADMIN AIDE IV</t>
+  </si>
+  <si>
+    <t>12/11,15,18,26,29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2197,7 +2199,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2242,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2306,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2366,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2432,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2495,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2593,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2652,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2717,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,7 +2760,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,7 +2835,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3021,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,7 +3087,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3143,7 +3145,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3209,7 +3211,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3265,7 +3267,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3342,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3383,7 +3385,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3449,7 +3451,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3505,7 +3507,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3603,7 +3605,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3666,7 +3668,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3715,7 +3717,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3732,26 +3734,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K544" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K544" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K544" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K544"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3763,12 +3765,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3777,13 +3779,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4087,7 +4089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4097,7 +4099,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4105,34 +4107,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A443"/>
+      <pane ySplit="3690" topLeftCell="A491" activePane="bottomLeft"/>
       <selection activeCell="O7" sqref="O7"/>
-      <selection pane="bottomLeft" activeCell="F445" sqref="F445"/>
+      <selection pane="bottomLeft" activeCell="E508" sqref="E508"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4153,7 +4155,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4173,7 +4175,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4195,7 +4197,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4203,7 +4205,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4216,7 +4218,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -4233,7 +4235,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4268,7 +4270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4287,12 +4289,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>263.45800000000003</v>
+        <v>262.45800000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>108</v>
       </c>
@@ -4314,7 +4316,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -4340,7 +4342,7 @@
         <v>35916</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>35827</v>
@@ -4367,7 +4369,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>98</v>
@@ -4389,7 +4391,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>77</v>
@@ -4411,7 +4413,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>116</v>
@@ -4433,7 +4435,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f>EDATE(A12,1)</f>
         <v>35855</v>
@@ -4456,7 +4458,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -4478,7 +4480,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>77</v>
@@ -4500,7 +4502,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>77</v>
@@ -4522,7 +4524,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -4540,7 +4542,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f>EDATE(A16,1)</f>
         <v>35886</v>
@@ -4567,7 +4569,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>77</v>
@@ -4589,7 +4591,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>122</v>
@@ -4609,7 +4611,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A21,1)</f>
         <v>35916</v>
@@ -4634,7 +4636,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f>EDATE(A24,1)</f>
         <v>35947</v>
@@ -4661,7 +4663,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" ref="A26:A142" si="0">EDATE(A25,1)</f>
         <v>35977</v>
@@ -4688,7 +4690,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>98</v>
@@ -4710,7 +4712,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>60</v>
@@ -4730,7 +4732,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A26,1)</f>
         <v>36008</v>
@@ -4757,7 +4759,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -4784,7 +4786,7 @@
         <v>35835</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>98</v>
@@ -4806,7 +4808,7 @@
         <v>36077</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
@@ -4828,7 +4830,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>60</v>
@@ -4848,7 +4850,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f>EDATE(A30,1)</f>
         <v>36069</v>
@@ -4875,7 +4877,7 @@
         <v>35956</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>53</v>
@@ -4897,7 +4899,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>127</v>
@@ -4919,7 +4921,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A34,1)</f>
         <v>36100</v>
@@ -4946,7 +4948,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>98</v>
@@ -4965,7 +4967,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>128</v>
@@ -4982,7 +4984,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A37,1)</f>
         <v>36130</v>
@@ -5007,7 +5009,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>109</v>
       </c>
@@ -5029,7 +5031,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>36161</v>
@@ -5056,7 +5058,7 @@
         <v>36495</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>98</v>
@@ -5075,7 +5077,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>128</v>
@@ -5092,7 +5094,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="49"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f>EDATE(A42,1)</f>
         <v>36192</v>
@@ -5119,7 +5121,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>141</v>
@@ -5139,7 +5141,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f>EDATE(A45,1)</f>
         <v>36220</v>
@@ -5166,7 +5168,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>98</v>
@@ -5183,7 +5185,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>60</v>
@@ -5200,7 +5202,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A47,1)</f>
         <v>36251</v>
@@ -5225,7 +5227,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -5252,7 +5254,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>143</v>
@@ -5272,7 +5274,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>36312</v>
@@ -5295,7 +5297,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>98</v>
@@ -5317,7 +5319,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>53</v>
@@ -5339,7 +5341,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>60</v>
@@ -5359,7 +5361,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f>EDATE(A53,1)</f>
         <v>36342</v>
@@ -5384,7 +5386,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5409,7 +5411,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -5436,7 +5438,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>153</v>
@@ -5456,7 +5458,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f>EDATE(A59,1)</f>
         <v>36434</v>
@@ -5483,7 +5485,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>154</v>
@@ -5503,7 +5505,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36465</v>
@@ -5530,7 +5532,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>98</v>
@@ -5552,7 +5554,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>155</v>
@@ -5572,7 +5574,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A63,1)</f>
         <v>36495</v>
@@ -5599,7 +5601,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>156</v>
@@ -5619,7 +5621,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>110</v>
       </c>
@@ -5641,7 +5643,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f>EDATE(A66,1)</f>
         <v>36526</v>
@@ -5666,7 +5668,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>36557</v>
@@ -5693,7 +5695,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>98</v>
@@ -5712,7 +5714,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>162</v>
@@ -5731,7 +5733,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>163</v>
@@ -5748,7 +5750,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A70,1)</f>
         <v>36586</v>
@@ -5775,7 +5777,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="0"/>
         <v>36617</v>
@@ -5798,7 +5800,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>164</v>
@@ -5818,7 +5820,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36647</v>
@@ -5843,7 +5845,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="0"/>
         <v>36678</v>
@@ -5868,7 +5870,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="0"/>
         <v>36708</v>
@@ -5895,7 +5897,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>170</v>
@@ -5915,7 +5917,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>36739</v>
@@ -5940,7 +5942,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="0"/>
         <v>36770</v>
@@ -5965,7 +5967,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="0"/>
         <v>36800</v>
@@ -5992,7 +5994,7 @@
         <v>36809</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>59</v>
@@ -6012,7 +6014,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A83,1)</f>
         <v>36831</v>
@@ -6039,7 +6041,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>173</v>
@@ -6061,7 +6063,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f>EDATE(A85,1)</f>
         <v>36861</v>
@@ -6086,7 +6088,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>113</v>
       </c>
@@ -6108,7 +6110,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36892</v>
@@ -6133,7 +6135,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>36923</v>
@@ -6160,7 +6162,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>98</v>
@@ -6182,7 +6184,7 @@
         <v>37227</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>98</v>
@@ -6204,7 +6206,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>83</v>
@@ -6224,7 +6226,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A90,1)</f>
         <v>36951</v>
@@ -6251,7 +6253,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>183</v>
@@ -6273,7 +6275,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f>EDATE(A94,1)</f>
         <v>36982</v>
@@ -6298,7 +6300,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
         <v>37012</v>
@@ -6325,7 +6327,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6343,7 +6345,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>37043</v>
@@ -6368,7 +6370,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -6395,7 +6397,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>98</v>
@@ -6414,7 +6416,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>85</v>
@@ -6431,7 +6433,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A100,1)</f>
         <v>37104</v>
@@ -6458,7 +6460,7 @@
         <v>37050</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>60</v>
@@ -6478,7 +6480,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f>EDATE(A103,1)</f>
         <v>37135</v>
@@ -6503,7 +6505,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="0"/>
         <v>37165</v>
@@ -6530,7 +6532,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="0"/>
         <v>37196</v>
@@ -6557,7 +6559,7 @@
         <v>37083</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>75</v>
@@ -6579,7 +6581,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>98</v>
@@ -6601,7 +6603,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>98</v>
@@ -6623,7 +6625,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>187</v>
@@ -6645,7 +6647,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A107,1)</f>
         <v>37226</v>
@@ -6672,7 +6674,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>197</v>
@@ -6692,7 +6694,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>112</v>
       </c>
@@ -6714,7 +6716,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A112,1)</f>
         <v>37257</v>
@@ -6741,7 +6743,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>199</v>
@@ -6761,7 +6763,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A115,1)</f>
         <v>37288</v>
@@ -6788,7 +6790,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>200</v>
@@ -6808,7 +6810,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37316</v>
@@ -6835,7 +6837,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>98</v>
@@ -6857,7 +6859,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>202</v>
@@ -6877,7 +6879,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A119,1)</f>
         <v>37347</v>
@@ -6902,7 +6904,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -6923,7 +6925,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>204</v>
@@ -6943,7 +6945,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f>EDATE(A123,1)</f>
         <v>37408</v>
@@ -6964,7 +6966,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -6991,7 +6993,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>205</v>
@@ -7011,7 +7013,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>37469</v>
@@ -7038,7 +7040,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -7065,7 +7067,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>60</v>
@@ -7085,7 +7087,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>37530</v>
@@ -7110,7 +7112,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="0"/>
         <v>37561</v>
@@ -7137,7 +7139,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>214</v>
@@ -7157,7 +7159,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A132,1)</f>
         <v>37591</v>
@@ -7182,7 +7184,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>111</v>
       </c>
@@ -7204,7 +7206,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>37622</v>
@@ -7231,7 +7233,7 @@
         <v>37804</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>98</v>
@@ -7253,7 +7255,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>203</v>
@@ -7273,7 +7275,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f>EDATE(A136,1)</f>
         <v>37653</v>
@@ -7300,7 +7302,7 @@
         <v>37896</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>63</v>
@@ -7320,7 +7322,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>37681</v>
@@ -7345,7 +7347,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="0"/>
         <v>37712</v>
@@ -7372,7 +7374,7 @@
         <v>37929</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>215</v>
@@ -7394,7 +7396,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>37742</v>
@@ -7419,7 +7421,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" ref="A145:A228" si="1">EDATE(A144,1)</f>
         <v>37773</v>
@@ -7444,7 +7446,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="1"/>
         <v>37803</v>
@@ -7471,7 +7473,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>83</v>
@@ -7491,7 +7493,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37834</v>
@@ -7518,7 +7520,7 @@
         <v>37933</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>202</v>
@@ -7538,7 +7540,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>37865</v>
@@ -7563,7 +7565,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>60</v>
@@ -7583,7 +7585,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f>EDATE(A150,1)</f>
         <v>37895</v>
@@ -7610,7 +7612,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>98</v>
@@ -7632,7 +7634,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37926</v>
@@ -7657,7 +7659,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -7684,7 +7686,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>220</v>
@@ -7704,7 +7706,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
         <v>115</v>
       </c>
@@ -7726,7 +7728,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>37987</v>
@@ -7751,7 +7753,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -7778,7 +7780,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>227</v>
@@ -7798,7 +7800,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>38047</v>
@@ -7823,7 +7825,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -7848,7 +7850,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f>EDATE(A162,1)</f>
         <v>38108</v>
@@ -7875,7 +7877,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>98</v>
@@ -7897,7 +7899,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>233</v>
@@ -7917,7 +7919,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A163,1)</f>
         <v>38139</v>
@@ -7942,7 +7944,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -7969,7 +7971,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>85</v>
@@ -7989,7 +7991,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f>EDATE(A167,1)</f>
         <v>38200</v>
@@ -8014,7 +8016,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -8039,7 +8041,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -8064,7 +8066,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -8091,7 +8093,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>53</v>
@@ -8113,7 +8115,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>53</v>
@@ -8135,7 +8137,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>236</v>
@@ -8155,7 +8157,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>75</v>
@@ -8177,7 +8179,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>237</v>
@@ -8197,7 +8199,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A172,1)</f>
         <v>38322</v>
@@ -8222,7 +8224,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="48" t="s">
         <v>114</v>
       </c>
@@ -8244,7 +8246,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>38353</v>
@@ -8271,7 +8273,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>236</v>
@@ -8291,7 +8293,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>252</v>
@@ -8311,7 +8313,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A180,1)</f>
         <v>38384</v>
@@ -8336,7 +8338,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="1"/>
         <v>38412</v>
@@ -8361,7 +8363,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -8386,7 +8388,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>254</v>
@@ -8406,7 +8408,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f>EDATE(A185,1)</f>
         <v>38473</v>
@@ -8431,7 +8433,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -8458,7 +8460,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>78</v>
@@ -8478,7 +8480,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A188,1)</f>
         <v>38534</v>
@@ -8503,7 +8505,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -8528,7 +8530,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -8553,7 +8555,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -8578,7 +8580,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="1"/>
         <v>38657</v>
@@ -8605,7 +8607,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>260</v>
@@ -8625,7 +8627,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f>EDATE(A194,1)</f>
         <v>38687</v>
@@ -8652,7 +8654,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>261</v>
@@ -8674,7 +8676,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>92</v>
@@ -8696,7 +8698,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>220</v>
@@ -8716,7 +8718,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="48" t="s">
         <v>244</v>
       </c>
@@ -8738,7 +8740,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A196,1)</f>
         <v>38718</v>
@@ -8763,7 +8765,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f t="shared" si="1"/>
         <v>38749</v>
@@ -8790,7 +8792,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>98</v>
@@ -8812,7 +8814,7 @@
         <v>38992</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>269</v>
@@ -8832,7 +8834,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A202,1)</f>
         <v>38777</v>
@@ -8857,7 +8859,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="1"/>
         <v>38808</v>
@@ -8882,7 +8884,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" si="1"/>
         <v>38838</v>
@@ -8907,7 +8909,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="1"/>
         <v>38869</v>
@@ -8932,7 +8934,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="1"/>
         <v>38899</v>
@@ -8959,7 +8961,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>93</v>
@@ -8981,7 +8983,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>273</v>
@@ -9001,7 +9003,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f>EDATE(A209,1)</f>
         <v>38930</v>
@@ -9028,7 +9030,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>274</v>
@@ -9048,7 +9050,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A212,1)</f>
         <v>38961</v>
@@ -9075,7 +9077,7 @@
         <v>38938</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>236</v>
@@ -9095,7 +9097,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>236</v>
@@ -9115,7 +9117,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>274</v>
@@ -9135,7 +9137,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A214,1)</f>
         <v>38991</v>
@@ -9160,7 +9162,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" si="1"/>
         <v>39022</v>
@@ -9187,7 +9189,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>236</v>
@@ -9207,7 +9209,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>55</v>
@@ -9227,7 +9229,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f>EDATE(A219,1)</f>
         <v>39052</v>
@@ -9252,7 +9254,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="48" t="s">
         <v>245</v>
       </c>
@@ -9274,7 +9276,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f>EDATE(A222,1)</f>
         <v>39083</v>
@@ -9299,7 +9301,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="1"/>
         <v>39114</v>
@@ -9324,7 +9326,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="1"/>
         <v>39142</v>
@@ -9349,7 +9351,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="1"/>
         <v>39173</v>
@@ -9374,7 +9376,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="1"/>
         <v>39203</v>
@@ -9399,7 +9401,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f t="shared" ref="A229:A324" si="2">EDATE(A228,1)</f>
         <v>39234</v>
@@ -9424,7 +9426,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="2"/>
         <v>39264</v>
@@ -9451,7 +9453,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>88</v>
@@ -9473,7 +9475,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f>EDATE(A230,1)</f>
         <v>39295</v>
@@ -9498,7 +9500,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -9523,7 +9525,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>236</v>
@@ -9543,7 +9545,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>290</v>
@@ -9563,7 +9565,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A233,1)</f>
         <v>39356</v>
@@ -9590,7 +9592,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>261</v>
@@ -9610,7 +9612,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>291</v>
@@ -9630,7 +9632,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f>EDATE(A236,1)</f>
         <v>39387</v>
@@ -9657,7 +9659,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>236</v>
@@ -9677,7 +9679,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>292</v>
@@ -9697,7 +9699,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f>EDATE(A239,1)</f>
         <v>39417</v>
@@ -9724,7 +9726,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>293</v>
@@ -9744,7 +9746,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="48" t="s">
         <v>246</v>
       </c>
@@ -9766,7 +9768,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A242,1)</f>
         <v>39448</v>
@@ -9791,7 +9793,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" si="2"/>
         <v>39479</v>
@@ -9816,7 +9818,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="2"/>
         <v>39508</v>
@@ -9841,7 +9843,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="2"/>
         <v>39539</v>
@@ -9866,7 +9868,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>39569</v>
@@ -9891,7 +9893,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="2"/>
         <v>39600</v>
@@ -9916,7 +9918,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="2"/>
         <v>39630</v>
@@ -9941,7 +9943,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="2"/>
         <v>39661</v>
@@ -9966,7 +9968,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="2"/>
         <v>39692</v>
@@ -9991,7 +9993,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="2"/>
         <v>39722</v>
@@ -10018,7 +10020,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>92</v>
@@ -10040,7 +10042,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>311</v>
@@ -10060,7 +10062,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A254,1)</f>
         <v>39753</v>
@@ -10087,7 +10089,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>236</v>
@@ -10107,7 +10109,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>236</v>
@@ -10127,7 +10129,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>312</v>
@@ -10147,7 +10149,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f>EDATE(A257,1)</f>
         <v>39783</v>
@@ -10172,7 +10174,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="48" t="s">
         <v>247</v>
       </c>
@@ -10194,7 +10196,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f>EDATE(A261,1)</f>
         <v>39814</v>
@@ -10219,7 +10221,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f t="shared" si="2"/>
         <v>39845</v>
@@ -10244,7 +10246,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" si="2"/>
         <v>39873</v>
@@ -10269,7 +10271,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="2"/>
         <v>39904</v>
@@ -10294,7 +10296,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="2"/>
         <v>39934</v>
@@ -10319,7 +10321,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" si="2"/>
         <v>39965</v>
@@ -10344,7 +10346,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" si="2"/>
         <v>39995</v>
@@ -10369,7 +10371,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="2"/>
         <v>40026</v>
@@ -10394,7 +10396,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="2"/>
         <v>40057</v>
@@ -10419,7 +10421,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" si="2"/>
         <v>40087</v>
@@ -10444,7 +10446,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>328</v>
@@ -10464,7 +10466,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>40118</v>
@@ -10491,7 +10493,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>199</v>
@@ -10511,7 +10513,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f>EDATE(A274,1)</f>
         <v>40148</v>
@@ -10538,7 +10540,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>51</v>
@@ -10558,7 +10560,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>329</v>
@@ -10578,7 +10580,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="48" t="s">
         <v>248</v>
       </c>
@@ -10600,7 +10602,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A276,1)</f>
         <v>40179</v>
@@ -10625,7 +10627,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="2"/>
         <v>40210</v>
@@ -10650,7 +10652,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" si="2"/>
         <v>40238</v>
@@ -10675,7 +10677,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="2"/>
         <v>40269</v>
@@ -10700,7 +10702,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="2"/>
         <v>40299</v>
@@ -10725,7 +10727,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f t="shared" si="2"/>
         <v>40330</v>
@@ -10750,7 +10752,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f t="shared" si="2"/>
         <v>40360</v>
@@ -10775,7 +10777,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f t="shared" si="2"/>
         <v>40391</v>
@@ -10800,7 +10802,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f t="shared" si="2"/>
         <v>40422</v>
@@ -10827,7 +10829,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="2"/>
         <v>40452</v>
@@ -10854,7 +10856,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="2"/>
         <v>40483</v>
@@ -10879,7 +10881,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="2"/>
         <v>40513</v>
@@ -10904,7 +10906,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>261</v>
@@ -10926,7 +10928,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>344</v>
@@ -10946,7 +10948,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="48" t="s">
         <v>249</v>
       </c>
@@ -10966,7 +10968,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A291,1)</f>
         <v>40544</v>
@@ -10991,7 +10993,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="2"/>
         <v>40575</v>
@@ -11016,7 +11018,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f t="shared" si="2"/>
         <v>40603</v>
@@ -11041,7 +11043,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f t="shared" si="2"/>
         <v>40634</v>
@@ -11066,7 +11068,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" si="2"/>
         <v>40664</v>
@@ -11091,7 +11093,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="2"/>
         <v>40695</v>
@@ -11118,7 +11120,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>236</v>
@@ -11138,7 +11140,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>93</v>
@@ -11160,7 +11162,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>357</v>
@@ -11180,7 +11182,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f>EDATE(A300,1)</f>
         <v>40725</v>
@@ -11205,7 +11207,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="2"/>
         <v>40756</v>
@@ -11230,7 +11232,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f t="shared" si="2"/>
         <v>40787</v>
@@ -11255,7 +11257,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" si="2"/>
         <v>40817</v>
@@ -11280,7 +11282,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="2"/>
         <v>40848</v>
@@ -11307,7 +11309,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>363</v>
@@ -11327,7 +11329,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A308,1)</f>
         <v>40878</v>
@@ -11354,7 +11356,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>51</v>
@@ -11374,7 +11376,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>364</v>
@@ -11394,7 +11396,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="48" t="s">
         <v>349</v>
       </c>
@@ -11416,7 +11418,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f>EDATE(A310,1)</f>
         <v>40909</v>
@@ -11443,7 +11445,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>276</v>
@@ -11465,7 +11467,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>368</v>
@@ -11485,7 +11487,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f>EDATE(A314,1)</f>
         <v>40940</v>
@@ -11510,7 +11512,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="2"/>
         <v>40969</v>
@@ -11535,7 +11537,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="2"/>
         <v>41000</v>
@@ -11560,7 +11562,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="2"/>
         <v>41030</v>
@@ -11585,7 +11587,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="2"/>
         <v>41061</v>
@@ -11610,7 +11612,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="2"/>
         <v>41091</v>
@@ -11635,7 +11637,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="2"/>
         <v>41122</v>
@@ -11660,7 +11662,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f t="shared" si="2"/>
         <v>41153</v>
@@ -11685,7 +11687,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" ref="A325:A401" si="3">EDATE(A324,1)</f>
         <v>41183</v>
@@ -11710,7 +11712,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" si="3"/>
         <v>41214</v>
@@ -11737,7 +11739,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>100</v>
@@ -11757,7 +11759,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>379</v>
@@ -11777,7 +11779,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A326,1)</f>
         <v>41244</v>
@@ -11802,7 +11804,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="48" t="s">
         <v>350</v>
       </c>
@@ -11824,7 +11826,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>41275</v>
@@ -11851,7 +11853,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="3"/>
         <v>41306</v>
@@ -11878,7 +11880,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="3"/>
         <v>41334</v>
@@ -11899,7 +11901,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="3"/>
         <v>41365</v>
@@ -11920,7 +11922,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="3"/>
         <v>41395</v>
@@ -11941,7 +11943,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f t="shared" si="3"/>
         <v>41426</v>
@@ -11966,7 +11968,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f t="shared" si="3"/>
         <v>41456</v>
@@ -11991,7 +11993,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" si="3"/>
         <v>41487</v>
@@ -12016,7 +12018,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f t="shared" si="3"/>
         <v>41518</v>
@@ -12037,7 +12039,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f t="shared" si="3"/>
         <v>41548</v>
@@ -12062,7 +12064,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f t="shared" si="3"/>
         <v>41579</v>
@@ -12087,7 +12089,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>60</v>
@@ -12107,7 +12109,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f>EDATE(A341,1)</f>
         <v>41609</v>
@@ -12134,7 +12136,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>357</v>
@@ -12154,7 +12156,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="48" t="s">
         <v>353</v>
       </c>
@@ -12176,7 +12178,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f>EDATE(A343,1)</f>
         <v>41640</v>
@@ -12201,7 +12203,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="3"/>
         <v>41671</v>
@@ -12226,7 +12228,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" si="3"/>
         <v>41699</v>
@@ -12247,7 +12249,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="3"/>
         <v>41730</v>
@@ -12272,7 +12274,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f t="shared" si="3"/>
         <v>41760</v>
@@ -12297,7 +12299,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f t="shared" si="3"/>
         <v>41791</v>
@@ -12324,7 +12326,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>236</v>
@@ -12344,7 +12346,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>286</v>
@@ -12364,7 +12366,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>41821</v>
@@ -12385,7 +12387,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" si="3"/>
         <v>41852</v>
@@ -12406,7 +12408,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="3"/>
         <v>41883</v>
@@ -12431,7 +12433,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f t="shared" si="3"/>
         <v>41913</v>
@@ -12458,7 +12460,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>229</v>
@@ -12478,7 +12480,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f>EDATE(A357,1)</f>
         <v>41944</v>
@@ -12503,7 +12505,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>92</v>
@@ -12525,7 +12527,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>276</v>
@@ -12547,7 +12549,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>396</v>
@@ -12567,7 +12569,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A359,1)</f>
         <v>41974</v>
@@ -12592,7 +12594,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="48" t="s">
         <v>352</v>
       </c>
@@ -12614,7 +12616,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f>EDATE(A363,1)</f>
         <v>42005</v>
@@ -12639,7 +12641,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f t="shared" si="3"/>
         <v>42036</v>
@@ -12666,7 +12668,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>398</v>
@@ -12688,7 +12690,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>253</v>
@@ -12708,7 +12710,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f>EDATE(A366,1)</f>
         <v>42064</v>
@@ -12735,7 +12737,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>261</v>
@@ -12757,7 +12759,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>399</v>
@@ -12777,7 +12779,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f>EDATE(A369,1)</f>
         <v>42095</v>
@@ -12804,7 +12806,7 @@
         <v>42159</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>400</v>
@@ -12824,7 +12826,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>42125</v>
@@ -12849,7 +12851,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="3"/>
         <v>42156</v>
@@ -12874,7 +12876,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>88</v>
@@ -12894,7 +12896,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>42186</v>
@@ -12919,7 +12921,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" si="3"/>
         <v>42217</v>
@@ -12944,7 +12946,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f t="shared" si="3"/>
         <v>42248</v>
@@ -12969,7 +12971,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="3"/>
         <v>42278</v>
@@ -12996,7 +12998,7 @@
         <v>42045</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>404</v>
@@ -13018,7 +13020,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>293</v>
@@ -13038,7 +13040,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f>EDATE(A380,1)</f>
         <v>42309</v>
@@ -13065,7 +13067,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>410</v>
@@ -13085,7 +13087,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f>EDATE(A383,1)</f>
         <v>42339</v>
@@ -13110,7 +13112,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>98</v>
@@ -13132,7 +13134,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>236</v>
@@ -13152,7 +13154,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>411</v>
@@ -13172,7 +13174,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="48" t="s">
         <v>351</v>
       </c>
@@ -13194,7 +13196,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f>EDATE(A385,1)</f>
         <v>42370</v>
@@ -13219,7 +13221,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f t="shared" si="3"/>
         <v>42401</v>
@@ -13244,7 +13246,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" si="3"/>
         <v>42430</v>
@@ -13271,7 +13273,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>418</v>
@@ -13291,7 +13293,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>42461</v>
@@ -13316,7 +13318,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f t="shared" si="3"/>
         <v>42491</v>
@@ -13341,7 +13343,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f t="shared" si="3"/>
         <v>42522</v>
@@ -13366,7 +13368,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f t="shared" si="3"/>
         <v>42552</v>
@@ -13391,7 +13393,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f t="shared" si="3"/>
         <v>42583</v>
@@ -13416,7 +13418,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f t="shared" si="3"/>
         <v>42614</v>
@@ -13441,7 +13443,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f t="shared" si="3"/>
         <v>42644</v>
@@ -13466,7 +13468,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f t="shared" si="3"/>
         <v>42675</v>
@@ -13491,7 +13493,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>77</v>
@@ -13513,7 +13515,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>424</v>
@@ -13533,7 +13535,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f>EDATE(A401,1)</f>
         <v>42705</v>
@@ -13558,7 +13560,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="48" t="s">
         <v>45</v>
       </c>
@@ -13576,7 +13578,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>42736</v>
       </c>
@@ -13600,7 +13602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>53</v>
@@ -13622,7 +13624,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>55</v>
@@ -13644,7 +13646,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>42767</v>
       </c>
@@ -13668,7 +13670,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>42795</v>
       </c>
@@ -13692,7 +13694,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>42826</v>
       </c>
@@ -13716,7 +13718,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>42856</v>
       </c>
@@ -13740,7 +13742,7 @@
       <c r="J412" s="12"/>
       <c r="K412" s="15"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>42887</v>
       </c>
@@ -13764,7 +13766,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>42917</v>
       </c>
@@ -13788,7 +13790,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>42948</v>
       </c>
@@ -13812,7 +13814,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>42979</v>
       </c>
@@ -13836,7 +13838,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>43009</v>
       </c>
@@ -13860,7 +13862,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>43040</v>
       </c>
@@ -13886,7 +13888,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>43070</v>
       </c>
@@ -13906,7 +13908,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="48" t="s">
         <v>46</v>
       </c>
@@ -13924,7 +13926,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>43101</v>
       </c>
@@ -13944,7 +13946,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>43132</v>
       </c>
@@ -13970,7 +13972,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>43160</v>
       </c>
@@ -13990,7 +13992,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>43191</v>
       </c>
@@ -14010,7 +14012,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>43221</v>
       </c>
@@ -14034,7 +14036,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>43252</v>
       </c>
@@ -14058,7 +14060,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>43282</v>
       </c>
@@ -14082,7 +14084,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>43313</v>
       </c>
@@ -14106,7 +14108,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>43344</v>
       </c>
@@ -14130,7 +14132,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>43374</v>
       </c>
@@ -14154,7 +14156,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>43405</v>
       </c>
@@ -14180,7 +14182,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>78</v>
@@ -14200,7 +14202,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>43435</v>
       </c>
@@ -14226,7 +14228,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>80</v>
@@ -14246,7 +14248,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="48" t="s">
         <v>47</v>
       </c>
@@ -14264,7 +14266,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>43466</v>
       </c>
@@ -14290,7 +14292,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>82</v>
@@ -14310,7 +14312,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43497</v>
       </c>
@@ -14334,7 +14336,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>43525</v>
       </c>
@@ -14360,7 +14362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>43556</v>
       </c>
@@ -14384,7 +14386,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>43586</v>
       </c>
@@ -14408,7 +14410,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>43617</v>
       </c>
@@ -14432,7 +14434,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>43647</v>
       </c>
@@ -14456,7 +14458,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>43678</v>
       </c>
@@ -14480,7 +14482,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>43709</v>
       </c>
@@ -14504,7 +14506,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43739</v>
       </c>
@@ -14528,7 +14530,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>43770</v>
       </c>
@@ -14552,7 +14554,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>43800</v>
       </c>
@@ -14578,7 +14580,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>92</v>
@@ -14598,7 +14600,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>69</v>
@@ -14618,7 +14620,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="48" t="s">
         <v>48</v>
       </c>
@@ -14636,7 +14638,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>43831</v>
       </c>
@@ -14660,7 +14662,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>43862</v>
       </c>
@@ -14680,7 +14682,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43891</v>
       </c>
@@ -14700,7 +14702,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>43922</v>
       </c>
@@ -14720,7 +14722,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>43952</v>
       </c>
@@ -14740,7 +14742,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43983</v>
       </c>
@@ -14760,7 +14762,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>44013</v>
       </c>
@@ -14780,7 +14782,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>44044</v>
       </c>
@@ -14800,7 +14802,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>44075</v>
       </c>
@@ -14820,7 +14822,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>44105</v>
       </c>
@@ -14840,7 +14842,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>44136</v>
       </c>
@@ -14860,7 +14862,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>44166</v>
       </c>
@@ -14886,7 +14888,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>97</v>
@@ -14906,7 +14908,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="48" t="s">
         <v>49</v>
       </c>
@@ -14924,7 +14926,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>44197</v>
       </c>
@@ -14944,7 +14946,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>44228</v>
       </c>
@@ -14970,7 +14972,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>77</v>
@@ -14992,7 +14994,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>44256</v>
       </c>
@@ -15012,7 +15014,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>44287</v>
       </c>
@@ -15032,7 +15034,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>44317</v>
       </c>
@@ -15052,7 +15054,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>44348</v>
       </c>
@@ -15072,7 +15074,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>44378</v>
       </c>
@@ -15092,7 +15094,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>44409</v>
       </c>
@@ -15112,7 +15114,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>44440</v>
       </c>
@@ -15138,7 +15140,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>67</v>
@@ -15160,7 +15162,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44470</v>
       </c>
@@ -15180,7 +15182,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>44501</v>
       </c>
@@ -15200,7 +15202,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>44531</v>
       </c>
@@ -15224,7 +15226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="48" t="s">
         <v>50</v>
       </c>
@@ -15242,7 +15244,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44562</v>
       </c>
@@ -15268,7 +15270,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>44593</v>
       </c>
@@ -15294,7 +15296,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44621</v>
       </c>
@@ -15314,7 +15316,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44652</v>
       </c>
@@ -15334,7 +15336,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>44682</v>
       </c>
@@ -15354,7 +15356,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>44713</v>
       </c>
@@ -15374,7 +15376,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>44743</v>
       </c>
@@ -15400,7 +15402,7 @@
         <v>44754</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>428</v>
@@ -15420,7 +15422,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="49"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44774</v>
       </c>
@@ -15442,7 +15444,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44805</v>
       </c>
@@ -15466,7 +15468,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>75</v>
@@ -15488,7 +15490,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>261</v>
@@ -15510,7 +15512,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44835</v>
       </c>
@@ -15536,7 +15538,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44866</v>
       </c>
@@ -15556,7 +15558,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44896</v>
       </c>
@@ -15580,7 +15582,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="48" t="s">
         <v>105</v>
       </c>
@@ -15598,7 +15600,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44927</v>
       </c>
@@ -15618,7 +15620,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44958</v>
       </c>
@@ -15638,7 +15640,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44986</v>
       </c>
@@ -15658,7 +15660,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>45017</v>
       </c>
@@ -15678,7 +15680,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>45047</v>
       </c>
@@ -15698,7 +15700,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>45078</v>
       </c>
@@ -15718,7 +15720,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>45108</v>
       </c>
@@ -15738,7 +15740,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>45139</v>
       </c>
@@ -15758,7 +15760,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>45170</v>
       </c>
@@ -15778,7 +15780,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>45200</v>
       </c>
@@ -15798,11 +15800,13 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>45231</v>
       </c>
-      <c r="B507" s="20"/>
+      <c r="B507" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C507" s="13">
         <v>1.25</v>
       </c>
@@ -15813,12 +15817,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H507" s="39"/>
+      <c r="H507" s="39">
+        <v>1</v>
+      </c>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
-      <c r="K507" s="20"/>
-    </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K507" s="49">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>45261</v>
       </c>
@@ -15840,9 +15848,11 @@
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="20"/>
-    </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K508" s="20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="48" t="s">
         <v>429</v>
       </c>
@@ -15860,7 +15870,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>45292</v>
       </c>
@@ -15880,7 +15890,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>45323</v>
       </c>
@@ -15900,7 +15910,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>45352</v>
       </c>
@@ -15920,7 +15930,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>45383</v>
       </c>
@@ -15940,7 +15950,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>45413</v>
       </c>
@@ -15960,7 +15970,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>45459</v>
       </c>
@@ -15980,7 +15990,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15996,7 +16006,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -16012,7 +16022,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -16028,7 +16038,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -16044,7 +16054,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -16060,7 +16070,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -16076,7 +16086,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -16092,7 +16102,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -16108,7 +16118,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -16124,7 +16134,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -16140,7 +16150,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -16156,7 +16166,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -16172,7 +16182,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -16188,7 +16198,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -16204,7 +16214,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -16220,7 +16230,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -16236,7 +16246,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -16252,7 +16262,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -16268,7 +16278,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -16284,7 +16294,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -16300,7 +16310,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -16316,7 +16326,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -16332,7 +16342,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -16348,7 +16358,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -16364,7 +16374,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -16380,7 +16390,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -16396,7 +16406,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -16412,7 +16422,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -16428,7 +16438,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="41"/>
       <c r="B544" s="15"/>
       <c r="C544" s="42"/>
@@ -16459,10 +16469,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16485,7 +16495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16493,21 +16503,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -16520,7 +16530,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16549,7 +16559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -16575,17 +16585,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16606,7 +16616,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16633,7 +16643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16659,7 +16669,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16685,7 +16695,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16711,7 +16721,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16737,7 +16747,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16763,7 +16773,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16789,7 +16799,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16815,7 +16825,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16835,7 +16845,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16855,7 +16865,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16875,7 +16885,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16896,7 +16906,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16917,7 +16927,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16938,7 +16948,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16959,7 +16969,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16980,7 +16990,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17001,7 +17011,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17022,7 +17032,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17043,7 +17053,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17064,7 +17074,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17085,7 +17095,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17106,7 +17116,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17127,7 +17137,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17148,7 +17158,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17169,7 +17179,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17190,7 +17200,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17211,7 +17221,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17232,7 +17242,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17253,7 +17263,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17274,7 +17284,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17295,7 +17305,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17304,7 +17314,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17313,7 +17323,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17322,7 +17332,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17331,7 +17341,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17340,7 +17350,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17349,7 +17359,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17358,7 +17368,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17367,7 +17377,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17376,7 +17386,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17385,7 +17395,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17394,7 +17404,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17403,7 +17413,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17412,7 +17422,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17421,7 +17431,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17430,7 +17440,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17439,7 +17449,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17448,7 +17458,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17457,7 +17467,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17466,7 +17476,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17475,7 +17485,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17484,7 +17494,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17493,7 +17503,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17502,7 +17512,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17511,7 +17521,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17520,7 +17530,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17529,7 +17539,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17538,7 +17548,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17547,7 +17557,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17556,7 +17566,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
